--- a/Several Codes/List of codes.xlsx
+++ b/Several Codes/List of codes.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="67">
   <si>
     <t>N°DO EXERCÍCIO</t>
   </si>
@@ -39,9 +39,6 @@
     <t>Nome do Exercício</t>
   </si>
   <si>
-    <t>Lista_1_EX_1_A_5</t>
-  </si>
-  <si>
     <t>Nome de variáveis</t>
   </si>
   <si>
@@ -172,6 +169,56 @@
   </si>
   <si>
     <t>Quantidade de cédulas</t>
+  </si>
+  <si>
+    <t>List_1_EX_1_to_5</t>
+  </si>
+  <si>
+    <t>Commit</t>
+  </si>
+  <si>
+    <t>List_3_EX_1</t>
+  </si>
+  <si>
+    <t>List_3_EX_2</t>
+  </si>
+  <si>
+    <t>List_3_EX_3</t>
+  </si>
+  <si>
+    <t>JOKENNNNNPÔ</t>
+  </si>
+  <si>
+    <t>Adivinhando número escolido entre 1 a 10000</t>
+  </si>
+  <si>
+    <t>Variable names</t>
+  </si>
+  <si>
+    <t>Type of variables</t>
+  </si>
+  <si>
+    <t>Code result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+In this file you will find codes referring to: Identify operators 
+</t>
+  </si>
+  <si>
+    <t>Code analysis</t>
+  </si>
+  <si>
+    <t>Is the number even or odd ?  &gt;  With this code the user can identify whether the number is even or odd.</t>
+  </si>
+  <si>
+    <t>List_1_EX_6 - Sum between two numbers   &gt; In this document, we have the code to make the sum between two numbers.</t>
+  </si>
+  <si>
+    <t>List_1_EX_7 - Number Multiplier  &gt; This document has the code to multiply numbers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &gt;  This code can be used for validate whether the year is a leap year or not.</t>
   </si>
 </sst>
 </file>
@@ -207,16 +254,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="8">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
@@ -244,16 +300,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="A1:E30" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:E30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="A1:F92" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:F92">
     <filterColumn colId="1"/>
+    <filterColumn colId="5"/>
   </autoFilter>
-  <tableColumns count="5">
-    <tableColumn id="1" name="N°DO EXERCÍCIO" dataDxfId="4"/>
-    <tableColumn id="5" name="Nome do Exercício" dataDxfId="3"/>
-    <tableColumn id="2" name="DESCRIÇÃO" dataDxfId="2"/>
-    <tableColumn id="3" name="Lista" dataDxfId="1"/>
-    <tableColumn id="4" name="Curso" dataDxfId="0"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="N°DO EXERCÍCIO" dataDxfId="5"/>
+    <tableColumn id="5" name="Nome do Exercício" dataDxfId="4"/>
+    <tableColumn id="2" name="DESCRIÇÃO" dataDxfId="3"/>
+    <tableColumn id="3" name="Lista" dataDxfId="2"/>
+    <tableColumn id="4" name="Curso" dataDxfId="1"/>
+    <tableColumn id="6" name="Commit" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -544,10 +602,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:H92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="C7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -556,9 +614,10 @@
     <col min="3" max="3" width="56.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="22.140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="30.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="110" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -574,13 +633,16 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="17.25" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -588,365 +650,800 @@
       <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="E5" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="E8" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="E9" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="E14" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="E15" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="F16" s="1"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="E17" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="E18" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="E19" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="E20" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="E21" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="E22" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="E23" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="F24" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="E25" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="E26" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1">
         <v>26</v>
       </c>
+      <c r="B27" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="E27" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="B28" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="B29" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1">
         <v>29</v>
       </c>
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="F31" s="1"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="F34" s="1"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="F36" s="1"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="F37" s="1"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="F38" s="1"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="F39" s="1"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="F40" s="1"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="F41" s="1"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="F42" s="1"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="F43" s="1"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="F44" s="1"/>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="F45" s="1"/>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="F46" s="1"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="F47" s="1"/>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="F48" s="1"/>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="F49" s="1"/>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="F50" s="1"/>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="F51" s="1"/>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="F52" s="1"/>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="F53" s="1"/>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="F54" s="1"/>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="F55" s="1"/>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="F56" s="1"/>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="F57" s="1"/>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="F58" s="1"/>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="F59" s="1"/>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="F60" s="1"/>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="F61" s="1"/>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="F62" s="1"/>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="F63" s="1"/>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="F64" s="1"/>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="F65" s="1"/>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="F66" s="1"/>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="F67" s="1"/>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="F68" s="1"/>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="F69" s="1"/>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="F70" s="1"/>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="F71" s="1"/>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="F72" s="1"/>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="F73" s="1"/>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="F74" s="1"/>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="F75" s="1"/>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="F76" s="1"/>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="F77" s="1"/>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="F78" s="1"/>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="F79" s="1"/>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="F80" s="1"/>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="F81" s="1"/>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="F82" s="1"/>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="F83" s="1"/>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="F84" s="1"/>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="F85" s="1"/>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="F86" s="1"/>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="F87" s="1"/>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="F88" s="1"/>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="F89" s="1"/>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="F90" s="1"/>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="F91" s="1"/>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="F92" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
